--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.97870499999999</v>
+        <v>24.697429</v>
       </c>
       <c r="H2">
-        <v>215.936115</v>
+        <v>74.092287</v>
       </c>
       <c r="I2">
-        <v>0.2528997088333435</v>
+        <v>0.1654326617267083</v>
       </c>
       <c r="J2">
-        <v>0.2528997088333435</v>
+        <v>0.1654326617267083</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>88.84215833333333</v>
+        <v>0.1949616666666667</v>
       </c>
       <c r="N2">
-        <v>266.526475</v>
+        <v>0.584885</v>
       </c>
       <c r="O2">
-        <v>0.9957536651060204</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9957536651060206</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>6394.743506238291</v>
+        <v>4.815051920221666</v>
       </c>
       <c r="R2">
-        <v>57552.69155614462</v>
+        <v>43.335467281995</v>
       </c>
       <c r="S2">
-        <v>0.2518258119750471</v>
+        <v>0.1654326617267083</v>
       </c>
       <c r="T2">
-        <v>0.2518258119750472</v>
+        <v>0.1654326617267083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.97870499999999</v>
+        <v>72.59127033333333</v>
       </c>
       <c r="H3">
-        <v>215.936115</v>
+        <v>217.773811</v>
       </c>
       <c r="I3">
-        <v>0.2528997088333435</v>
+        <v>0.4862436114045056</v>
       </c>
       <c r="J3">
-        <v>0.2528997088333435</v>
+        <v>0.4862436114045056</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.584885</v>
       </c>
       <c r="O3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>14.03308829130833</v>
+        <v>14.15251504963722</v>
       </c>
       <c r="R3">
-        <v>126.297794621775</v>
+        <v>127.372635446735</v>
       </c>
       <c r="S3">
-        <v>0.0005526248003581087</v>
+        <v>0.4862436114045056</v>
       </c>
       <c r="T3">
-        <v>0.0005526248003581089</v>
+        <v>0.4862436114045056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,418 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.97870499999999</v>
+        <v>52.00122166666666</v>
       </c>
       <c r="H4">
-        <v>215.936115</v>
+        <v>156.003665</v>
       </c>
       <c r="I4">
-        <v>0.2528997088333435</v>
+        <v>0.3483237268687862</v>
       </c>
       <c r="J4">
-        <v>0.2528997088333435</v>
+        <v>0.3483237268687862</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1839006666666667</v>
+        <v>0.1949616666666667</v>
       </c>
       <c r="N4">
-        <v>0.551702</v>
+        <v>0.584885</v>
       </c>
       <c r="O4">
-        <v>0.002061180933512596</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.002061180933512597</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>13.23693183530333</v>
+        <v>10.13824484483611</v>
       </c>
       <c r="R4">
-        <v>119.13238651773</v>
+        <v>91.24420360352499</v>
       </c>
       <c r="S4">
-        <v>0.0005212720579381747</v>
+        <v>0.3483237268687862</v>
       </c>
       <c r="T4">
-        <v>0.0005212720579381749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>72.59127033333333</v>
-      </c>
-      <c r="H5">
-        <v>217.773811</v>
-      </c>
-      <c r="I5">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="J5">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>88.84215833333333</v>
-      </c>
-      <c r="N5">
-        <v>266.526475</v>
-      </c>
-      <c r="O5">
-        <v>0.9957536651060204</v>
-      </c>
-      <c r="P5">
-        <v>0.9957536651060206</v>
-      </c>
-      <c r="Q5">
-        <v>6449.165132571802</v>
-      </c>
-      <c r="R5">
-        <v>58042.48619314622</v>
-      </c>
-      <c r="S5">
-        <v>0.2539689425364324</v>
-      </c>
-      <c r="T5">
-        <v>0.2539689425364325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>72.59127033333333</v>
-      </c>
-      <c r="H6">
-        <v>217.773811</v>
-      </c>
-      <c r="I6">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="J6">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1949616666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.584885</v>
-      </c>
-      <c r="O6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="P6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="Q6">
-        <v>14.15251504963722</v>
-      </c>
-      <c r="R6">
-        <v>127.372635446735</v>
-      </c>
-      <c r="S6">
-        <v>0.0005573278412788871</v>
-      </c>
-      <c r="T6">
-        <v>0.0005573278412788873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>72.59127033333333</v>
-      </c>
-      <c r="H7">
-        <v>217.773811</v>
-      </c>
-      <c r="I7">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="J7">
-        <v>0.2550519786531659</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.551702</v>
-      </c>
-      <c r="O7">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P7">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q7">
-        <v>13.34958300848022</v>
-      </c>
-      <c r="R7">
-        <v>120.146247076322</v>
-      </c>
-      <c r="S7">
-        <v>0.0005257082754545672</v>
-      </c>
-      <c r="T7">
-        <v>0.0005257082754545674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>140.043658</v>
-      </c>
-      <c r="H8">
-        <v>420.130974</v>
-      </c>
-      <c r="I8">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="J8">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>88.84215833333333</v>
-      </c>
-      <c r="N8">
-        <v>266.526475</v>
-      </c>
-      <c r="O8">
-        <v>0.9957536651060204</v>
-      </c>
-      <c r="P8">
-        <v>0.9957536651060206</v>
-      </c>
-      <c r="Q8">
-        <v>12441.78083761518</v>
-      </c>
-      <c r="R8">
-        <v>111976.0275385367</v>
-      </c>
-      <c r="S8">
-        <v>0.4899589105945407</v>
-      </c>
-      <c r="T8">
-        <v>0.4899589105945408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>140.043658</v>
-      </c>
-      <c r="H9">
-        <v>420.130974</v>
-      </c>
-      <c r="I9">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="J9">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1949616666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.584885</v>
-      </c>
-      <c r="O9">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="P9">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="Q9">
-        <v>27.30314496977667</v>
-      </c>
-      <c r="R9">
-        <v>245.72830472799</v>
-      </c>
-      <c r="S9">
-        <v>0.001075201318829913</v>
-      </c>
-      <c r="T9">
-        <v>0.001075201318829914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>140.043658</v>
-      </c>
-      <c r="H10">
-        <v>420.130974</v>
-      </c>
-      <c r="I10">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="J10">
-        <v>0.4920483125134905</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.551702</v>
-      </c>
-      <c r="O10">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P10">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q10">
-        <v>25.75412206863867</v>
-      </c>
-      <c r="R10">
-        <v>231.787098617748</v>
-      </c>
-      <c r="S10">
-        <v>0.001014200600119854</v>
-      </c>
-      <c r="T10">
-        <v>0.001014200600119854</v>
+        <v>0.3483237268687862</v>
       </c>
     </row>
   </sheetData>
